--- a/biology/Botanique/Darlingtonia_californica/Darlingtonia_californica.xlsx
+++ b/biology/Botanique/Darlingtonia_californica/Darlingtonia_californica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Darlingtonia californica
 La plante cobra (Darlingtonia californica) est une espèce de plantes à fleurs de la famille des Sarracéniacées. C'est la seule espèce du genre "Darlingtonia". Sa forme de serpent dressé fait penser à un cobra en position d'intimidation. C'est la raison pour laquelle on lui attribue le surnom de "plante cobra".
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante cobra est une plante herbacée vivace qui mesure de 0,9 à 1 m de haut. Les feuilles sont en cornets. Les fleurs ont des pétales bruns et des sépales verts et sont suspendues[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante cobra est une plante herbacée vivace qui mesure de 0,9 à 1 m de haut. Les feuilles sont en cornets. Les fleurs ont des pétales bruns et des sépales verts et sont suspendues.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Mécanisme de la Darlingtonia</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Durant sa croissance, la Darlingtonia s'incurve jusqu'à un angle de 90°. La plante carnivore utilise ses appendices en forme de moustaches pour sécréter du nectar qui va attirer les insectes. Ceux-ci sont ensuite guidés vers l'entrée du piège. Une fois prisonniers, ils cherchent à s'échapper en suivant la lumière passant à travers les taches blanches trompeuses situées sur la partie haute de la Darlingtonia. S'épuisant petit à petit, les insectes tombent ensuite au fond de la fosse où se trouve le système digestif de la plante carnivore.
 </t>
